--- a/binance.xlsx
+++ b/binance.xlsx
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G4" s="71" t="inlineStr">
         <is>
-          <t>0.000783</t>
+          <t>0.000999</t>
         </is>
       </c>
       <c r="H4" s="71" t="inlineStr">
@@ -2089,64 +2089,44 @@
           <t>QIWI</t>
         </is>
       </c>
-      <c r="B5" s="71" t="inlineStr">
-        <is>
-          <t>63.96</t>
-        </is>
-      </c>
-      <c r="C5" s="71" t="inlineStr">
-        <is>
-          <t>1292000.00</t>
-        </is>
-      </c>
-      <c r="D5" s="71" t="inlineStr">
-        <is>
-          <t>100890.00</t>
-        </is>
-      </c>
-      <c r="E5" s="71" t="inlineStr">
-        <is>
-          <t>63.95</t>
-        </is>
-      </c>
-      <c r="F5" s="71" t="inlineStr">
-        <is>
-          <t>18089.20</t>
-        </is>
+      <c r="B5" s="71" t="n">
+        <v>64.13</v>
+      </c>
+      <c r="C5" s="71" t="n">
+        <v>1264737.78</v>
+      </c>
+      <c r="D5" s="71" t="n">
+        <v>99888</v>
+      </c>
+      <c r="E5" s="71" t="n">
+        <v>64.55</v>
+      </c>
+      <c r="F5" s="71" t="n">
+        <v>17953</v>
       </c>
       <c r="G5" s="71" t="inlineStr">
         <is>
-          <t>0.000807</t>
-        </is>
-      </c>
-      <c r="H5" s="71" t="inlineStr">
-        <is>
-          <t>63.66</t>
-        </is>
-      </c>
-      <c r="I5" s="71" t="inlineStr">
-        <is>
-          <t>1267000.00</t>
-        </is>
-      </c>
-      <c r="J5" s="71" t="inlineStr">
-        <is>
-          <t>97251.00</t>
-        </is>
-      </c>
-      <c r="K5" s="71" t="inlineStr">
-        <is>
-          <t>63.25</t>
-        </is>
-      </c>
-      <c r="L5" s="71" t="inlineStr">
-        <is>
-          <t>17245.29</t>
-        </is>
+          <t>0.000819</t>
+        </is>
+      </c>
+      <c r="H5" s="71" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="I5" s="71" t="n">
+        <v>1264158.42</v>
+      </c>
+      <c r="J5" s="71" t="n">
+        <v>99836.50999999999</v>
+      </c>
+      <c r="K5" s="71" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="L5" s="71" t="n">
+        <v>17489.97</v>
       </c>
       <c r="M5" s="71" t="inlineStr">
         <is>
-          <t>0.000752</t>
+          <t>0.000781</t>
         </is>
       </c>
     </row>
@@ -2156,64 +2136,44 @@
           <t>ЮМАНИ</t>
         </is>
       </c>
-      <c r="B6" s="71" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="C6" s="71" t="inlineStr">
-        <is>
-          <t>1292868.62</t>
-        </is>
-      </c>
-      <c r="D6" s="71" t="inlineStr">
-        <is>
-          <t>100700.00</t>
-        </is>
-      </c>
-      <c r="E6" s="71" t="inlineStr">
-        <is>
-          <t>64.69</t>
-        </is>
-      </c>
-      <c r="F6" s="71" t="inlineStr">
-        <is>
-          <t>18240.00</t>
-        </is>
+      <c r="B6" s="71" t="n">
+        <v>64.44</v>
+      </c>
+      <c r="C6" s="71" t="n">
+        <v>1275000</v>
+      </c>
+      <c r="D6" s="71" t="n">
+        <v>101550</v>
+      </c>
+      <c r="E6" s="71" t="n">
+        <v>64.58</v>
+      </c>
+      <c r="F6" s="71" t="n">
+        <v>18100</v>
       </c>
       <c r="G6" s="71" t="inlineStr">
         <is>
-          <t>0.000813</t>
-        </is>
-      </c>
-      <c r="H6" s="71" t="inlineStr">
-        <is>
-          <t>63.38</t>
-        </is>
-      </c>
-      <c r="I6" s="71" t="inlineStr">
-        <is>
-          <t>1261601.00</t>
-        </is>
-      </c>
-      <c r="J6" s="71" t="inlineStr">
-        <is>
-          <t>97100.00</t>
-        </is>
-      </c>
-      <c r="K6" s="71" t="inlineStr">
-        <is>
-          <t>63.67</t>
-        </is>
-      </c>
-      <c r="L6" s="71" t="inlineStr">
-        <is>
-          <t>17243.29</t>
-        </is>
+          <t>0.000830</t>
+        </is>
+      </c>
+      <c r="H6" s="71" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="I6" s="71" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="J6" s="71" t="n">
+        <v>98876.96000000001</v>
+      </c>
+      <c r="K6" s="71" t="n">
+        <v>63.27</v>
+      </c>
+      <c r="L6" s="71" t="n">
+        <v>17500</v>
       </c>
       <c r="M6" s="71" t="inlineStr">
         <is>
-          <t>0.000741</t>
+          <t>0.000781</t>
         </is>
       </c>
     </row>
@@ -2223,64 +2183,44 @@
           <t>РАЙФВАЙЗЕН</t>
         </is>
       </c>
-      <c r="B7" s="71" t="inlineStr">
-        <is>
-          <t>63.65</t>
-        </is>
-      </c>
-      <c r="C7" s="71" t="inlineStr">
-        <is>
-          <t>1269999.00</t>
-        </is>
-      </c>
-      <c r="D7" s="71" t="inlineStr">
-        <is>
-          <t>99299.00</t>
-        </is>
-      </c>
-      <c r="E7" s="71" t="inlineStr">
-        <is>
-          <t>63.89</t>
-        </is>
-      </c>
-      <c r="F7" s="71" t="inlineStr">
-        <is>
-          <t>17720.00</t>
-        </is>
+      <c r="B7" s="71" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="C7" s="71" t="n">
+        <v>1266800</v>
+      </c>
+      <c r="D7" s="71" t="n">
+        <v>100150</v>
+      </c>
+      <c r="E7" s="71" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="F7" s="71" t="n">
+        <v>17689</v>
       </c>
       <c r="G7" s="71" t="inlineStr">
         <is>
-          <t>0.000785</t>
-        </is>
-      </c>
-      <c r="H7" s="71" t="inlineStr">
-        <is>
-          <t>63.48</t>
-        </is>
-      </c>
-      <c r="I7" s="71" t="inlineStr">
-        <is>
-          <t>1262525.00</t>
-        </is>
-      </c>
-      <c r="J7" s="71" t="inlineStr">
-        <is>
-          <t>97511.87</t>
-        </is>
-      </c>
-      <c r="K7" s="71" t="inlineStr">
-        <is>
-          <t>63.21</t>
-        </is>
-      </c>
-      <c r="L7" s="71" t="inlineStr">
-        <is>
-          <t>17450.00</t>
-        </is>
+          <t>0.000821</t>
+        </is>
+      </c>
+      <c r="H7" s="71" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="I7" s="71" t="n">
+        <v>1265415.67</v>
+      </c>
+      <c r="J7" s="71" t="n">
+        <v>100222.26</v>
+      </c>
+      <c r="K7" s="71" t="n">
+        <v>64.02</v>
+      </c>
+      <c r="L7" s="71" t="n">
+        <v>17611.47</v>
       </c>
       <c r="M7" s="71" t="inlineStr">
         <is>
-          <t>0.000752</t>
+          <t>0.000771</t>
         </is>
       </c>
     </row>
@@ -2290,64 +2230,44 @@
           <t>ПОЧТА БАНК</t>
         </is>
       </c>
-      <c r="B8" s="71" t="inlineStr">
-        <is>
-          <t>63.90</t>
-        </is>
-      </c>
-      <c r="C8" s="71" t="inlineStr">
-        <is>
-          <t>1282000.00</t>
-        </is>
-      </c>
-      <c r="D8" s="71" t="inlineStr">
-        <is>
-          <t>99816.56</t>
-        </is>
-      </c>
-      <c r="E8" s="71" t="inlineStr">
-        <is>
-          <t>63.89</t>
-        </is>
-      </c>
-      <c r="F8" s="71" t="inlineStr">
-        <is>
-          <t>17720.00</t>
-        </is>
+      <c r="B8" s="71" t="n">
+        <v>64.03</v>
+      </c>
+      <c r="C8" s="71" t="n">
+        <v>1267500</v>
+      </c>
+      <c r="D8" s="71" t="n">
+        <v>100500</v>
+      </c>
+      <c r="E8" s="71" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="F8" s="71" t="n">
+        <v>17765</v>
       </c>
       <c r="G8" s="71" t="inlineStr">
         <is>
-          <t>0.000819</t>
-        </is>
-      </c>
-      <c r="H8" s="71" t="inlineStr">
-        <is>
-          <t>63.34</t>
-        </is>
-      </c>
-      <c r="I8" s="71" t="inlineStr">
-        <is>
-          <t>1253015.00</t>
-        </is>
-      </c>
-      <c r="J8" s="71" t="inlineStr">
-        <is>
-          <t>97083.97</t>
-        </is>
-      </c>
-      <c r="K8" s="71" t="inlineStr">
-        <is>
-          <t>63.27</t>
-        </is>
-      </c>
-      <c r="L8" s="71" t="inlineStr">
-        <is>
-          <t>17288.44</t>
-        </is>
+          <t>0.000821</t>
+        </is>
+      </c>
+      <c r="H8" s="71" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="I8" s="71" t="n">
+        <v>1261775.93</v>
+      </c>
+      <c r="J8" s="71" t="n">
+        <v>99838.25999999999</v>
+      </c>
+      <c r="K8" s="71" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="L8" s="71" t="n">
+        <v>17459.12</v>
       </c>
       <c r="M8" s="71" t="inlineStr">
         <is>
-          <t>0.000748</t>
+          <t>0.000770</t>
         </is>
       </c>
     </row>
@@ -2357,64 +2277,44 @@
           <t>МТС-БАНК</t>
         </is>
       </c>
-      <c r="B9" s="71" t="inlineStr">
-        <is>
-          <t>63.85</t>
-        </is>
-      </c>
-      <c r="C9" s="71" t="inlineStr">
-        <is>
-          <t>1270000.00</t>
-        </is>
-      </c>
-      <c r="D9" s="71" t="inlineStr">
-        <is>
-          <t>99350.00</t>
-        </is>
-      </c>
-      <c r="E9" s="71" t="inlineStr">
-        <is>
-          <t>63.89</t>
-        </is>
-      </c>
-      <c r="F9" s="71" t="inlineStr">
-        <is>
-          <t>17720.00</t>
-        </is>
+      <c r="B9" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" s="71" t="n">
+        <v>1270142</v>
+      </c>
+      <c r="D9" s="71" t="n">
+        <v>101000</v>
+      </c>
+      <c r="E9" s="71" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="F9" s="71" t="n">
+        <v>18422.75</v>
       </c>
       <c r="G9" s="71" t="inlineStr">
         <is>
-          <t>0.000785</t>
-        </is>
-      </c>
-      <c r="H9" s="71" t="inlineStr">
-        <is>
-          <t>63.45</t>
-        </is>
-      </c>
-      <c r="I9" s="71" t="inlineStr">
-        <is>
-          <t>1253015.00</t>
-        </is>
-      </c>
-      <c r="J9" s="71" t="inlineStr">
-        <is>
-          <t>97085.49</t>
-        </is>
-      </c>
-      <c r="K9" s="71" t="inlineStr">
-        <is>
-          <t>63.18</t>
-        </is>
-      </c>
-      <c r="L9" s="71" t="inlineStr">
-        <is>
-          <t>17275.15</t>
-        </is>
+          <t>0.000821</t>
+        </is>
+      </c>
+      <c r="H9" s="71" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="I9" s="71" t="n">
+        <v>1250717.43</v>
+      </c>
+      <c r="J9" s="71" t="n">
+        <v>98972.89999999999</v>
+      </c>
+      <c r="K9" s="71" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="L9" s="71" t="n">
+        <v>17425.07</v>
       </c>
       <c r="M9" s="71" t="inlineStr">
         <is>
-          <t>0.000691</t>
+          <t>0.000725</t>
         </is>
       </c>
     </row>
@@ -2424,64 +2324,44 @@
           <t>ХОУМ КРЕДИТ БАНК</t>
         </is>
       </c>
-      <c r="B10" s="71" t="inlineStr">
-        <is>
-          <t>63.85</t>
-        </is>
-      </c>
-      <c r="C10" s="71" t="inlineStr">
-        <is>
-          <t>1284000.00</t>
-        </is>
-      </c>
-      <c r="D10" s="71" t="inlineStr">
-        <is>
-          <t>99740.04</t>
-        </is>
-      </c>
-      <c r="E10" s="71" t="inlineStr">
-        <is>
-          <t>64.08</t>
-        </is>
-      </c>
-      <c r="F10" s="71" t="inlineStr">
-        <is>
-          <t>18000.00</t>
-        </is>
+      <c r="B10" s="71" t="n">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="C10" s="71" t="n">
+        <v>1267100</v>
+      </c>
+      <c r="D10" s="71" t="n">
+        <v>102700</v>
+      </c>
+      <c r="E10" s="71" t="n">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="F10" s="71" t="n">
+        <v>18000</v>
       </c>
       <c r="G10" s="71" t="inlineStr">
         <is>
           <t>0.000882</t>
         </is>
       </c>
-      <c r="H10" s="71" t="inlineStr">
-        <is>
-          <t>63.31</t>
-        </is>
-      </c>
-      <c r="I10" s="71" t="inlineStr">
-        <is>
-          <t>1253015.00</t>
-        </is>
-      </c>
-      <c r="J10" s="71" t="inlineStr">
-        <is>
-          <t>97083.97</t>
-        </is>
-      </c>
-      <c r="K10" s="71" t="inlineStr">
-        <is>
-          <t>63.30</t>
-        </is>
-      </c>
-      <c r="L10" s="71" t="inlineStr">
-        <is>
-          <t>17288.44</t>
-        </is>
+      <c r="H10" s="71" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="I10" s="71" t="n">
+        <v>1258136.19</v>
+      </c>
+      <c r="J10" s="71" t="n">
+        <v>99145.75</v>
+      </c>
+      <c r="K10" s="71" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="L10" s="71" t="n">
+        <v>17500</v>
       </c>
       <c r="M10" s="71" t="inlineStr">
         <is>
-          <t>0.000727</t>
+          <t>0.000747</t>
         </is>
       </c>
     </row>
@@ -2510,64 +2390,44 @@
           <t>ФИАТНЫЙ БАЛАНС</t>
         </is>
       </c>
-      <c r="B12" s="71" t="inlineStr">
-        <is>
-          <t>60.50</t>
-        </is>
-      </c>
-      <c r="C12" s="71" t="inlineStr">
-        <is>
-          <t>1259999.00</t>
-        </is>
-      </c>
-      <c r="D12" s="71" t="inlineStr">
-        <is>
-          <t>93829.92</t>
-        </is>
-      </c>
-      <c r="E12" s="71" t="inlineStr">
-        <is>
-          <t>60.60</t>
-        </is>
-      </c>
-      <c r="F12" s="71" t="inlineStr">
-        <is>
-          <t>17196.99</t>
-        </is>
+      <c r="B12" s="71" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="C12" s="71" t="n">
+        <v>1199998</v>
+      </c>
+      <c r="D12" s="71" t="n">
+        <v>96394</v>
+      </c>
+      <c r="E12" s="71" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="F12" s="71" t="n">
+        <v>17000</v>
       </c>
       <c r="G12" s="71" t="inlineStr">
         <is>
-          <t>0.000785</t>
-        </is>
-      </c>
-      <c r="H12" s="71" t="inlineStr">
-        <is>
-          <t>60.07</t>
-        </is>
-      </c>
-      <c r="I12" s="71" t="inlineStr">
-        <is>
-          <t>1190929.05</t>
-        </is>
-      </c>
-      <c r="J12" s="71" t="inlineStr">
-        <is>
-          <t>92700.00</t>
-        </is>
-      </c>
-      <c r="K12" s="71" t="inlineStr">
-        <is>
-          <t>60.20</t>
-        </is>
-      </c>
-      <c r="L12" s="71" t="inlineStr">
-        <is>
-          <t>16751.00</t>
-        </is>
+          <t>0.000820</t>
+        </is>
+      </c>
+      <c r="H12" s="71" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="I12" s="71" t="n">
+        <v>1201071.82</v>
+      </c>
+      <c r="J12" s="71" t="n">
+        <v>95037.36</v>
+      </c>
+      <c r="K12" s="71" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="L12" s="71" t="n">
+        <v>16733.14</v>
       </c>
       <c r="M12" s="71" t="inlineStr">
         <is>
-          <t>0.000712</t>
+          <t>0.000725</t>
         </is>
       </c>
     </row>
@@ -2577,64 +2437,44 @@
           <t>PAYER</t>
         </is>
       </c>
-      <c r="B13" s="71" t="inlineStr">
-        <is>
-          <t>60.53</t>
-        </is>
-      </c>
-      <c r="C13" s="71" t="inlineStr">
-        <is>
-          <t>1259999.00</t>
-        </is>
-      </c>
-      <c r="D13" s="71" t="inlineStr">
-        <is>
-          <t>93830.92</t>
-        </is>
-      </c>
-      <c r="E13" s="71" t="inlineStr">
-        <is>
-          <t>60.60</t>
-        </is>
-      </c>
-      <c r="F13" s="71" t="inlineStr">
-        <is>
-          <t>17196.99</t>
-        </is>
+      <c r="B13" s="71" t="n">
+        <v>60.15</v>
+      </c>
+      <c r="C13" s="71" t="n">
+        <v>1202900</v>
+      </c>
+      <c r="D13" s="71" t="n">
+        <v>96958.31</v>
+      </c>
+      <c r="E13" s="71" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="F13" s="71" t="n">
+        <v>17180</v>
       </c>
       <c r="G13" s="71" t="inlineStr">
         <is>
-          <t>0.000773</t>
-        </is>
-      </c>
-      <c r="H13" s="71" t="inlineStr">
-        <is>
-          <t>59.80</t>
-        </is>
-      </c>
-      <c r="I13" s="71" t="inlineStr">
-        <is>
-          <t>1168032.94</t>
-        </is>
-      </c>
-      <c r="J13" s="71" t="inlineStr">
-        <is>
-          <t>88316.79</t>
-        </is>
-      </c>
-      <c r="K13" s="71" t="inlineStr">
-        <is>
-          <t>59.12</t>
-        </is>
-      </c>
-      <c r="L13" s="71" t="inlineStr">
-        <is>
-          <t>15788.10</t>
-        </is>
+          <t>0.000774</t>
+        </is>
+      </c>
+      <c r="H13" s="71" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="I13" s="71" t="n">
+        <v>1100414.2</v>
+      </c>
+      <c r="J13" s="71" t="n">
+        <v>89972.47</v>
+      </c>
+      <c r="K13" s="71" t="n">
+        <v>58.26</v>
+      </c>
+      <c r="L13" s="71" t="n">
+        <v>15460.55</v>
       </c>
       <c r="M13" s="71" t="inlineStr">
         <is>
-          <t>0.000692</t>
+          <t>0.000660</t>
         </is>
       </c>
     </row>
@@ -2644,64 +2484,44 @@
           <t>AdvCash</t>
         </is>
       </c>
-      <c r="B14" s="71" t="inlineStr">
-        <is>
-          <t>60.53</t>
-        </is>
-      </c>
-      <c r="C14" s="71" t="inlineStr">
-        <is>
-          <t>1259999.00</t>
-        </is>
-      </c>
-      <c r="D14" s="71" t="inlineStr">
-        <is>
-          <t>93830.92</t>
-        </is>
-      </c>
-      <c r="E14" s="71" t="inlineStr">
-        <is>
-          <t>60.60</t>
-        </is>
-      </c>
-      <c r="F14" s="71" t="inlineStr">
-        <is>
-          <t>17196.99</t>
-        </is>
+      <c r="B14" s="71" t="n">
+        <v>60.39</v>
+      </c>
+      <c r="C14" s="71" t="n">
+        <v>1202900</v>
+      </c>
+      <c r="D14" s="71" t="n">
+        <v>97918.19</v>
+      </c>
+      <c r="E14" s="71" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="F14" s="71" t="n">
+        <v>17278.22</v>
       </c>
       <c r="G14" s="71" t="inlineStr">
         <is>
-          <t>0.000814</t>
-        </is>
-      </c>
-      <c r="H14" s="71" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="I14" s="71" t="inlineStr">
-        <is>
-          <t>1168032.94</t>
-        </is>
-      </c>
-      <c r="J14" s="71" t="inlineStr">
-        <is>
-          <t>90114.84</t>
-        </is>
-      </c>
-      <c r="K14" s="71" t="inlineStr">
-        <is>
-          <t>59.50</t>
-        </is>
-      </c>
-      <c r="L14" s="71" t="inlineStr">
-        <is>
-          <t>16082.68</t>
-        </is>
+          <t>0.000877</t>
+        </is>
+      </c>
+      <c r="H14" s="71" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="I14" s="71" t="n">
+        <v>1180061.64</v>
+      </c>
+      <c r="J14" s="71" t="n">
+        <v>90950.42</v>
+      </c>
+      <c r="K14" s="71" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L14" s="71" t="n">
+        <v>16386.9</v>
       </c>
       <c r="M14" s="71" t="inlineStr">
         <is>
-          <t>0.000715</t>
+          <t>0.000651</t>
         </is>
       </c>
     </row>
@@ -2754,30 +2574,20 @@
         </is>
       </c>
       <c r="B21" s="71" t="n"/>
-      <c r="C21" s="71" t="inlineStr">
-        <is>
-          <t>19898.43000000</t>
-        </is>
-      </c>
-      <c r="D21" s="71" t="inlineStr">
-        <is>
-          <t>1.00000000</t>
-        </is>
-      </c>
-      <c r="E21" s="71" t="inlineStr">
-        <is>
-          <t>275.20000000</t>
-        </is>
-      </c>
-      <c r="F21" s="71" t="inlineStr">
-        <is>
-          <t>1542.45000000</t>
-        </is>
-      </c>
-      <c r="G21" s="71" t="inlineStr">
-        <is>
-          <t>60.53000000</t>
-        </is>
+      <c r="C21" s="71" t="n">
+        <v>19784.67</v>
+      </c>
+      <c r="D21" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="71" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="F21" s="71" t="n">
+        <v>1565.31</v>
+      </c>
+      <c r="G21" s="71" t="n">
+        <v>60.42</v>
       </c>
       <c r="H21" s="71" t="n"/>
     </row>
@@ -2787,31 +2597,21 @@
           <t>BTC</t>
         </is>
       </c>
-      <c r="B22" s="71" t="inlineStr">
-        <is>
-          <t>19898.43000000</t>
-        </is>
+      <c r="B22" s="71" t="n">
+        <v>19784.67</v>
       </c>
       <c r="C22" s="71" t="n"/>
-      <c r="D22" s="71" t="inlineStr">
-        <is>
-          <t>19898.43000000</t>
-        </is>
-      </c>
-      <c r="E22" s="71" t="inlineStr">
-        <is>
-          <t>0.01383200</t>
-        </is>
-      </c>
-      <c r="F22" s="71" t="inlineStr">
-        <is>
-          <t>0.07749100</t>
-        </is>
-      </c>
-      <c r="G22" s="71" t="inlineStr">
-        <is>
-          <t>1204980.00000000</t>
-        </is>
+      <c r="D22" s="71" t="n">
+        <v>19784.67</v>
+      </c>
+      <c r="E22" s="71" t="n">
+        <v>0.013924</v>
+      </c>
+      <c r="F22" s="71" t="n">
+        <v>0.079113</v>
+      </c>
+      <c r="G22" s="71" t="n">
+        <v>1195421</v>
       </c>
       <c r="H22" s="71" t="n"/>
     </row>
@@ -2821,31 +2621,21 @@
           <t>BUSD</t>
         </is>
       </c>
-      <c r="B23" s="71" t="inlineStr">
-        <is>
-          <t>1.00000000</t>
-        </is>
-      </c>
-      <c r="C23" s="71" t="inlineStr">
-        <is>
-          <t>19898.43000000</t>
-        </is>
+      <c r="B23" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="71" t="n">
+        <v>19784.67</v>
       </c>
       <c r="D23" s="71" t="n"/>
-      <c r="E23" s="71" t="inlineStr">
-        <is>
-          <t>275.20000000</t>
-        </is>
-      </c>
-      <c r="F23" s="71" t="inlineStr">
-        <is>
-          <t>1541.38000000</t>
-        </is>
-      </c>
-      <c r="G23" s="71" t="inlineStr">
-        <is>
-          <t>60.58000000</t>
-        </is>
+      <c r="E23" s="71" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="F23" s="71" t="n">
+        <v>1565.65</v>
+      </c>
+      <c r="G23" s="71" t="n">
+        <v>60.43</v>
       </c>
       <c r="H23" s="71" t="n"/>
     </row>
@@ -2855,31 +2645,21 @@
           <t>BNB</t>
         </is>
       </c>
-      <c r="B24" s="71" t="inlineStr">
-        <is>
-          <t>275.20000000</t>
-        </is>
-      </c>
-      <c r="C24" s="71" t="inlineStr">
-        <is>
-          <t>0.01383200</t>
-        </is>
-      </c>
-      <c r="D24" s="71" t="inlineStr">
-        <is>
-          <t>275.20000000</t>
-        </is>
+      <c r="B24" s="71" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C24" s="71" t="n">
+        <v>0.013924</v>
+      </c>
+      <c r="D24" s="71" t="n">
+        <v>275.4</v>
       </c>
       <c r="E24" s="71" t="n"/>
-      <c r="F24" s="71" t="inlineStr">
-        <is>
-          <t>0.17840000</t>
-        </is>
-      </c>
-      <c r="G24" s="71" t="inlineStr">
-        <is>
-          <t>16683.84000000</t>
-        </is>
+      <c r="F24" s="71" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="G24" s="71" t="n">
+        <v>16621.62</v>
       </c>
       <c r="H24" s="71" t="n"/>
     </row>
@@ -2889,31 +2669,21 @@
           <t>ETH</t>
         </is>
       </c>
-      <c r="B25" s="71" t="inlineStr">
-        <is>
-          <t>1542.45000000</t>
-        </is>
-      </c>
-      <c r="C25" s="71" t="inlineStr">
-        <is>
-          <t>0.07749100</t>
-        </is>
-      </c>
-      <c r="D25" s="71" t="inlineStr">
-        <is>
-          <t>1541.38000000</t>
-        </is>
-      </c>
-      <c r="E25" s="71" t="inlineStr">
-        <is>
-          <t>0.17840000</t>
-        </is>
+      <c r="B25" s="71" t="n">
+        <v>1565.31</v>
+      </c>
+      <c r="C25" s="71" t="n">
+        <v>0.079113</v>
+      </c>
+      <c r="D25" s="71" t="n">
+        <v>1565.65</v>
+      </c>
+      <c r="E25" s="71" t="n">
+        <v>0.176</v>
       </c>
       <c r="F25" s="71" t="n"/>
-      <c r="G25" s="71" t="inlineStr">
-        <is>
-          <t>93316.60000000</t>
-        </is>
+      <c r="G25" s="71" t="n">
+        <v>94475.5</v>
       </c>
       <c r="H25" s="71" t="n"/>
     </row>
@@ -2923,30 +2693,20 @@
           <t>RUB</t>
         </is>
       </c>
-      <c r="B26" s="71" t="inlineStr">
-        <is>
-          <t>60.53000000</t>
-        </is>
-      </c>
-      <c r="C26" s="71" t="inlineStr">
-        <is>
-          <t>1204980.00000000</t>
-        </is>
-      </c>
-      <c r="D26" s="71" t="inlineStr">
-        <is>
-          <t>60.58000000</t>
-        </is>
-      </c>
-      <c r="E26" s="71" t="inlineStr">
-        <is>
-          <t>16683.84000000</t>
-        </is>
-      </c>
-      <c r="F26" s="71" t="inlineStr">
-        <is>
-          <t>93316.60000000</t>
-        </is>
+      <c r="B26" s="71" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="C26" s="71" t="n">
+        <v>1195421</v>
+      </c>
+      <c r="D26" s="71" t="n">
+        <v>60.43</v>
+      </c>
+      <c r="E26" s="71" t="n">
+        <v>16621.62</v>
+      </c>
+      <c r="F26" s="71" t="n">
+        <v>94475.5</v>
       </c>
       <c r="G26" s="71" t="n"/>
       <c r="H26" s="71" t="n"/>

--- a/binance.xlsx
+++ b/binance.xlsx
@@ -2090,43 +2090,43 @@
         </is>
       </c>
       <c r="B5" s="71" t="n">
-        <v>64.13</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="C5" s="71" t="n">
-        <v>1264737.78</v>
+        <v>1038500</v>
       </c>
       <c r="D5" s="71" t="n">
-        <v>99888</v>
+        <v>73000</v>
       </c>
       <c r="E5" s="71" t="n">
-        <v>64.55</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="F5" s="71" t="n">
-        <v>17953</v>
+        <v>16669</v>
       </c>
       <c r="G5" s="71" t="inlineStr">
         <is>
-          <t>0.000819</t>
+          <t>0.000586</t>
         </is>
       </c>
       <c r="H5" s="71" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="I5" s="71" t="n">
+        <v>1030670.54</v>
+      </c>
+      <c r="J5" s="71" t="n">
+        <v>72247.57000000001</v>
+      </c>
+      <c r="K5" s="71" t="n">
         <v>63.8</v>
       </c>
-      <c r="I5" s="71" t="n">
-        <v>1264158.42</v>
-      </c>
-      <c r="J5" s="71" t="n">
-        <v>99836.50999999999</v>
-      </c>
-      <c r="K5" s="71" t="n">
-        <v>63.59</v>
-      </c>
       <c r="L5" s="71" t="n">
-        <v>17489.97</v>
+        <v>16496.65</v>
       </c>
       <c r="M5" s="71" t="inlineStr">
         <is>
-          <t>0.000781</t>
+          <t>0.000549</t>
         </is>
       </c>
     </row>
@@ -2137,43 +2137,43 @@
         </is>
       </c>
       <c r="B6" s="71" t="n">
-        <v>64.44</v>
+        <v>64.39</v>
       </c>
       <c r="C6" s="71" t="n">
-        <v>1275000</v>
+        <v>1039300</v>
       </c>
       <c r="D6" s="71" t="n">
-        <v>101550</v>
+        <v>72000</v>
       </c>
       <c r="E6" s="71" t="n">
-        <v>64.58</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="F6" s="71" t="n">
-        <v>18100</v>
+        <v>16669</v>
       </c>
       <c r="G6" s="71" t="inlineStr">
         <is>
-          <t>0.000830</t>
+          <t>0.000592</t>
         </is>
       </c>
       <c r="H6" s="71" t="n">
-        <v>63.8</v>
+        <v>63.86</v>
       </c>
       <c r="I6" s="71" t="n">
-        <v>1250000</v>
+        <v>1018823.75</v>
       </c>
       <c r="J6" s="71" t="n">
-        <v>98876.96000000001</v>
+        <v>71211.95</v>
       </c>
       <c r="K6" s="71" t="n">
-        <v>63.27</v>
+        <v>63.22</v>
       </c>
       <c r="L6" s="71" t="n">
-        <v>17500</v>
+        <v>16317.99</v>
       </c>
       <c r="M6" s="71" t="inlineStr">
         <is>
-          <t>0.000781</t>
+          <t>0.000548</t>
         </is>
       </c>
     </row>
@@ -2278,43 +2278,43 @@
         </is>
       </c>
       <c r="B9" s="71" t="n">
-        <v>64</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C9" s="71" t="n">
-        <v>1270142</v>
+        <v>1036200</v>
       </c>
       <c r="D9" s="71" t="n">
-        <v>101000</v>
+        <v>73050</v>
       </c>
       <c r="E9" s="71" t="n">
-        <v>64.68000000000001</v>
+        <v>64.19</v>
       </c>
       <c r="F9" s="71" t="n">
-        <v>18422.75</v>
+        <v>16772.5</v>
       </c>
       <c r="G9" s="71" t="inlineStr">
         <is>
-          <t>0.000821</t>
+          <t>0.000573</t>
         </is>
       </c>
       <c r="H9" s="71" t="n">
-        <v>63.78</v>
+        <v>63.85</v>
       </c>
       <c r="I9" s="71" t="n">
-        <v>1250717.43</v>
+        <v>1028658.44</v>
       </c>
       <c r="J9" s="71" t="n">
-        <v>98972.89999999999</v>
+        <v>71708.85000000001</v>
       </c>
       <c r="K9" s="71" t="n">
-        <v>63.2</v>
+        <v>63.55</v>
       </c>
       <c r="L9" s="71" t="n">
-        <v>17425.07</v>
+        <v>16430.12</v>
       </c>
       <c r="M9" s="71" t="inlineStr">
         <is>
-          <t>0.000725</t>
+          <t>0.000535</t>
         </is>
       </c>
     </row>
@@ -2325,43 +2325,43 @@
         </is>
       </c>
       <c r="B10" s="71" t="n">
-        <v>64.04000000000001</v>
+        <v>63.94</v>
       </c>
       <c r="C10" s="71" t="n">
-        <v>1267100</v>
+        <v>1031990</v>
       </c>
       <c r="D10" s="71" t="n">
-        <v>102700</v>
+        <v>73545.24000000001</v>
       </c>
       <c r="E10" s="71" t="n">
-        <v>64.04000000000001</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="F10" s="71" t="n">
-        <v>18000</v>
+        <v>16930.37</v>
       </c>
       <c r="G10" s="71" t="inlineStr">
         <is>
-          <t>0.000882</t>
+          <t>0.000687</t>
         </is>
       </c>
       <c r="H10" s="71" t="n">
-        <v>63.78</v>
+        <v>63.82</v>
       </c>
       <c r="I10" s="71" t="n">
-        <v>1258136.19</v>
+        <v>1025596.67</v>
       </c>
       <c r="J10" s="71" t="n">
-        <v>99145.75</v>
+        <v>71708.85000000001</v>
       </c>
       <c r="K10" s="71" t="n">
-        <v>63.2</v>
+        <v>63.48</v>
       </c>
       <c r="L10" s="71" t="n">
-        <v>17500</v>
+        <v>16321.15</v>
       </c>
       <c r="M10" s="71" t="inlineStr">
         <is>
-          <t>0.000747</t>
+          <t>0.000550</t>
         </is>
       </c>
     </row>
@@ -2391,43 +2391,43 @@
         </is>
       </c>
       <c r="B12" s="71" t="n">
-        <v>60.38</v>
+        <v>60.65</v>
       </c>
       <c r="C12" s="71" t="n">
-        <v>1199998</v>
+        <v>994951.58</v>
       </c>
       <c r="D12" s="71" t="n">
-        <v>96394</v>
+        <v>69893.36</v>
       </c>
       <c r="E12" s="71" t="n">
-        <v>60.94</v>
+        <v>61.66</v>
       </c>
       <c r="F12" s="71" t="n">
-        <v>17000</v>
+        <v>16498.98</v>
       </c>
       <c r="G12" s="71" t="inlineStr">
         <is>
-          <t>0.000820</t>
+          <t>0.000597</t>
         </is>
       </c>
       <c r="H12" s="71" t="n">
-        <v>60.72</v>
+        <v>60.85</v>
       </c>
       <c r="I12" s="71" t="n">
-        <v>1201071.82</v>
+        <v>970034.5699999999</v>
       </c>
       <c r="J12" s="71" t="n">
-        <v>95037.36</v>
+        <v>67971.62</v>
       </c>
       <c r="K12" s="71" t="n">
-        <v>59.9</v>
+        <v>59.87</v>
       </c>
       <c r="L12" s="71" t="n">
-        <v>16733.14</v>
+        <v>15497.35</v>
       </c>
       <c r="M12" s="71" t="inlineStr">
         <is>
-          <t>0.000725</t>
+          <t>0.000532</t>
         </is>
       </c>
     </row>
@@ -2438,43 +2438,43 @@
         </is>
       </c>
       <c r="B13" s="71" t="n">
-        <v>60.15</v>
+        <v>60.66</v>
       </c>
       <c r="C13" s="71" t="n">
-        <v>1202900</v>
+        <v>994951.58</v>
       </c>
       <c r="D13" s="71" t="n">
-        <v>96958.31</v>
+        <v>69893.36</v>
       </c>
       <c r="E13" s="71" t="n">
-        <v>60.94</v>
+        <v>61</v>
       </c>
       <c r="F13" s="71" t="n">
-        <v>17180</v>
+        <v>16498.98</v>
       </c>
       <c r="G13" s="71" t="inlineStr">
         <is>
-          <t>0.000774</t>
+          <t>0.000597</t>
         </is>
       </c>
       <c r="H13" s="71" t="n">
-        <v>59.6</v>
+        <v>59.98</v>
       </c>
       <c r="I13" s="71" t="n">
-        <v>1100414.2</v>
+        <v>970033.5699999999</v>
       </c>
       <c r="J13" s="71" t="n">
-        <v>89972.47</v>
+        <v>67970.62</v>
       </c>
       <c r="K13" s="71" t="n">
-        <v>58.26</v>
+        <v>59.85</v>
       </c>
       <c r="L13" s="71" t="n">
-        <v>15460.55</v>
+        <v>15479.5</v>
       </c>
       <c r="M13" s="71" t="inlineStr">
         <is>
-          <t>0.000660</t>
+          <t>0.000517</t>
         </is>
       </c>
     </row>
@@ -2485,43 +2485,43 @@
         </is>
       </c>
       <c r="B14" s="71" t="n">
-        <v>60.39</v>
+        <v>60.8</v>
       </c>
       <c r="C14" s="71" t="n">
-        <v>1202900</v>
+        <v>994951.58</v>
       </c>
       <c r="D14" s="71" t="n">
-        <v>97918.19</v>
+        <v>69893.36</v>
       </c>
       <c r="E14" s="71" t="n">
-        <v>60.94</v>
+        <v>61.66</v>
       </c>
       <c r="F14" s="71" t="n">
-        <v>17278.22</v>
+        <v>16498.98</v>
       </c>
       <c r="G14" s="71" t="inlineStr">
         <is>
-          <t>0.000877</t>
+          <t>0.000574</t>
         </is>
       </c>
       <c r="H14" s="71" t="n">
-        <v>59.5</v>
+        <v>60.85</v>
       </c>
       <c r="I14" s="71" t="n">
-        <v>1180061.64</v>
+        <v>970052</v>
       </c>
       <c r="J14" s="71" t="n">
-        <v>90950.42</v>
+        <v>67970.62</v>
       </c>
       <c r="K14" s="71" t="n">
-        <v>59.5</v>
+        <v>59.86</v>
       </c>
       <c r="L14" s="71" t="n">
-        <v>16386.9</v>
+        <v>15479.5</v>
       </c>
       <c r="M14" s="71" t="inlineStr">
         <is>
-          <t>0.000651</t>
+          <t>0.000517</t>
         </is>
       </c>
     </row>
@@ -2575,19 +2575,19 @@
       </c>
       <c r="B21" s="71" t="n"/>
       <c r="C21" s="71" t="n">
-        <v>19784.67</v>
+        <v>16172.1</v>
       </c>
       <c r="D21" s="71" t="n">
-        <v>1</v>
+        <v>1.0014</v>
       </c>
       <c r="E21" s="71" t="n">
-        <v>275.5</v>
+        <v>260.3</v>
       </c>
       <c r="F21" s="71" t="n">
-        <v>1565.31</v>
+        <v>1133.13</v>
       </c>
       <c r="G21" s="71" t="n">
-        <v>60.42</v>
+        <v>60.92</v>
       </c>
       <c r="H21" s="71" t="n"/>
     </row>
@@ -2598,20 +2598,20 @@
         </is>
       </c>
       <c r="B22" s="71" t="n">
-        <v>19784.67</v>
+        <v>16172.1</v>
       </c>
       <c r="C22" s="71" t="n"/>
       <c r="D22" s="71" t="n">
-        <v>19784.67</v>
+        <v>16172.1</v>
       </c>
       <c r="E22" s="71" t="n">
-        <v>0.013924</v>
+        <v>0.016095</v>
       </c>
       <c r="F22" s="71" t="n">
-        <v>0.079113</v>
+        <v>0.070063</v>
       </c>
       <c r="G22" s="71" t="n">
-        <v>1195421</v>
+        <v>986175</v>
       </c>
       <c r="H22" s="71" t="n"/>
     </row>
@@ -2622,20 +2622,20 @@
         </is>
       </c>
       <c r="B23" s="71" t="n">
-        <v>1</v>
+        <v>1.0014</v>
       </c>
       <c r="C23" s="71" t="n">
-        <v>19784.67</v>
+        <v>16172.1</v>
       </c>
       <c r="D23" s="71" t="n"/>
       <c r="E23" s="71" t="n">
-        <v>275.4</v>
+        <v>260</v>
       </c>
       <c r="F23" s="71" t="n">
-        <v>1565.65</v>
+        <v>1131.86</v>
       </c>
       <c r="G23" s="71" t="n">
-        <v>60.43</v>
+        <v>61.03</v>
       </c>
       <c r="H23" s="71" t="n"/>
     </row>
@@ -2646,20 +2646,20 @@
         </is>
       </c>
       <c r="B24" s="71" t="n">
-        <v>275.5</v>
+        <v>260.3</v>
       </c>
       <c r="C24" s="71" t="n">
-        <v>0.013924</v>
+        <v>0.016095</v>
       </c>
       <c r="D24" s="71" t="n">
-        <v>275.4</v>
+        <v>260</v>
       </c>
       <c r="E24" s="71" t="n"/>
       <c r="F24" s="71" t="n">
-        <v>0.176</v>
+        <v>0.2297</v>
       </c>
       <c r="G24" s="71" t="n">
-        <v>16621.62</v>
+        <v>15891.53</v>
       </c>
       <c r="H24" s="71" t="n"/>
     </row>
@@ -2670,20 +2670,20 @@
         </is>
       </c>
       <c r="B25" s="71" t="n">
-        <v>1565.31</v>
+        <v>1133.13</v>
       </c>
       <c r="C25" s="71" t="n">
-        <v>0.079113</v>
+        <v>0.070063</v>
       </c>
       <c r="D25" s="71" t="n">
-        <v>1565.65</v>
+        <v>1131.86</v>
       </c>
       <c r="E25" s="71" t="n">
-        <v>0.176</v>
+        <v>0.2297</v>
       </c>
       <c r="F25" s="71" t="n"/>
       <c r="G25" s="71" t="n">
-        <v>94475.5</v>
+        <v>69229.3</v>
       </c>
       <c r="H25" s="71" t="n"/>
     </row>
@@ -2694,19 +2694,19 @@
         </is>
       </c>
       <c r="B26" s="71" t="n">
-        <v>60.42</v>
+        <v>60.92</v>
       </c>
       <c r="C26" s="71" t="n">
-        <v>1195421</v>
+        <v>986175</v>
       </c>
       <c r="D26" s="71" t="n">
-        <v>60.43</v>
+        <v>61.03</v>
       </c>
       <c r="E26" s="71" t="n">
-        <v>16621.62</v>
+        <v>15891.53</v>
       </c>
       <c r="F26" s="71" t="n">
-        <v>94475.5</v>
+        <v>69229.3</v>
       </c>
       <c r="G26" s="71" t="n"/>
       <c r="H26" s="71" t="n"/>

--- a/binance.xlsx
+++ b/binance.xlsx
@@ -1854,8 +1854,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B21" activeCellId="1" sqref="B3:M14 B21:G26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="B21:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1971,40 +1971,44 @@
         </is>
       </c>
       <c r="B3" s="71" t="n">
-        <v>63.33</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C3" s="71" t="n">
-        <v>1379009</v>
+        <v>1009000</v>
       </c>
       <c r="D3" s="71" t="n">
-        <v>108490</v>
+        <v>69698.52</v>
       </c>
       <c r="E3" s="71" t="n">
-        <v>63.53</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="F3" s="71" t="n">
-        <v>19250</v>
-      </c>
-      <c r="G3" s="71" t="n">
-        <v>0.000935</v>
+        <v>16315</v>
+      </c>
+      <c r="G3" s="71" t="inlineStr">
+        <is>
+          <t>0.000556</t>
+        </is>
       </c>
       <c r="H3" s="71" t="n">
-        <v>63.4</v>
+        <v>63.92</v>
       </c>
       <c r="I3" s="71" t="n">
-        <v>1370464</v>
+        <v>1000355</v>
       </c>
       <c r="J3" s="71" t="n">
-        <v>108025</v>
+        <v>69666</v>
       </c>
       <c r="K3" s="71" t="n">
-        <v>63.3</v>
+        <v>63.96</v>
       </c>
       <c r="L3" s="71" t="n">
-        <v>19161.62</v>
-      </c>
-      <c r="M3" s="71" t="n">
-        <v>0.0008899999999999999</v>
+        <v>16106</v>
+      </c>
+      <c r="M3" s="71" t="inlineStr">
+        <is>
+          <t>0.000522</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -2022,64 +2026,44 @@
           <t>РОСБАНК</t>
         </is>
       </c>
-      <c r="B4" s="71" t="inlineStr">
-        <is>
-          <t>63.77</t>
-        </is>
-      </c>
-      <c r="C4" s="71" t="inlineStr">
-        <is>
-          <t>1270000.00</t>
-        </is>
-      </c>
-      <c r="D4" s="71" t="inlineStr">
-        <is>
-          <t>99000.00</t>
-        </is>
-      </c>
-      <c r="E4" s="71" t="inlineStr">
-        <is>
-          <t>63.89</t>
-        </is>
-      </c>
-      <c r="F4" s="71" t="inlineStr">
-        <is>
-          <t>17719.00</t>
-        </is>
+      <c r="B4" s="71" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="C4" s="71" t="n">
+        <v>1008300</v>
+      </c>
+      <c r="D4" s="71" t="n">
+        <v>69759</v>
+      </c>
+      <c r="E4" s="71" t="n">
+        <v>64.22</v>
+      </c>
+      <c r="F4" s="71" t="n">
+        <v>16300</v>
       </c>
       <c r="G4" s="71" t="inlineStr">
         <is>
-          <t>0.000999</t>
-        </is>
-      </c>
-      <c r="H4" s="71" t="inlineStr">
-        <is>
-          <t>63.64</t>
-        </is>
-      </c>
-      <c r="I4" s="71" t="inlineStr">
-        <is>
-          <t>1266001.00</t>
-        </is>
-      </c>
-      <c r="J4" s="71" t="inlineStr">
-        <is>
-          <t>97962.51</t>
-        </is>
-      </c>
-      <c r="K4" s="71" t="inlineStr">
-        <is>
-          <t>63.62</t>
-        </is>
-      </c>
-      <c r="L4" s="71" t="inlineStr">
-        <is>
-          <t>17494.58</t>
-        </is>
+          <t>0.000556</t>
+        </is>
+      </c>
+      <c r="H4" s="71" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="I4" s="71" t="n">
+        <v>1001100</v>
+      </c>
+      <c r="J4" s="71" t="n">
+        <v>68674.39</v>
+      </c>
+      <c r="K4" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="L4" s="71" t="n">
+        <v>16077</v>
       </c>
       <c r="M4" s="71" t="inlineStr">
         <is>
-          <t>0.000753</t>
+          <t>0.000523</t>
         </is>
       </c>
     </row>
@@ -2090,43 +2074,43 @@
         </is>
       </c>
       <c r="B5" s="71" t="n">
-        <v>64.15000000000001</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="C5" s="71" t="n">
-        <v>1038500</v>
+        <v>1027300</v>
       </c>
       <c r="D5" s="71" t="n">
-        <v>73000</v>
+        <v>71599</v>
       </c>
       <c r="E5" s="71" t="n">
-        <v>64.43000000000001</v>
+        <v>64.45</v>
       </c>
       <c r="F5" s="71" t="n">
-        <v>16669</v>
+        <v>16400</v>
       </c>
       <c r="G5" s="71" t="inlineStr">
         <is>
-          <t>0.000586</t>
+          <t>0.000558</t>
         </is>
       </c>
       <c r="H5" s="71" t="n">
-        <v>63.97</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I5" s="71" t="n">
-        <v>1030670.54</v>
+        <v>999000</v>
       </c>
       <c r="J5" s="71" t="n">
-        <v>72247.57000000001</v>
+        <v>68500</v>
       </c>
       <c r="K5" s="71" t="n">
-        <v>63.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L5" s="71" t="n">
-        <v>16496.65</v>
+        <v>16110</v>
       </c>
       <c r="M5" s="71" t="inlineStr">
         <is>
-          <t>0.000549</t>
+          <t>0.000525</t>
         </is>
       </c>
     </row>
@@ -2137,43 +2121,43 @@
         </is>
       </c>
       <c r="B6" s="71" t="n">
-        <v>64.39</v>
+        <v>64.38</v>
       </c>
       <c r="C6" s="71" t="n">
-        <v>1039300</v>
+        <v>1032490</v>
       </c>
       <c r="D6" s="71" t="n">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="E6" s="71" t="n">
-        <v>64.43000000000001</v>
+        <v>65</v>
       </c>
       <c r="F6" s="71" t="n">
-        <v>16669</v>
+        <v>16585</v>
       </c>
       <c r="G6" s="71" t="inlineStr">
         <is>
-          <t>0.000592</t>
+          <t>0.000565</t>
         </is>
       </c>
       <c r="H6" s="71" t="n">
-        <v>63.86</v>
+        <v>63.95</v>
       </c>
       <c r="I6" s="71" t="n">
-        <v>1018823.75</v>
+        <v>992377.16</v>
       </c>
       <c r="J6" s="71" t="n">
-        <v>71211.95</v>
+        <v>68406.23</v>
       </c>
       <c r="K6" s="71" t="n">
-        <v>63.22</v>
+        <v>63.7</v>
       </c>
       <c r="L6" s="71" t="n">
-        <v>16317.99</v>
+        <v>16110</v>
       </c>
       <c r="M6" s="71" t="inlineStr">
         <is>
-          <t>0.000548</t>
+          <t>0.000518</t>
         </is>
       </c>
     </row>
@@ -2183,46 +2167,18 @@
           <t>РАЙФВАЙЗЕН</t>
         </is>
       </c>
-      <c r="B7" s="71" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="C7" s="71" t="n">
-        <v>1266800</v>
-      </c>
-      <c r="D7" s="71" t="n">
-        <v>100150</v>
-      </c>
-      <c r="E7" s="71" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="F7" s="71" t="n">
-        <v>17689</v>
-      </c>
-      <c r="G7" s="71" t="inlineStr">
-        <is>
-          <t>0.000821</t>
-        </is>
-      </c>
-      <c r="H7" s="71" t="n">
-        <v>63.75</v>
-      </c>
-      <c r="I7" s="71" t="n">
-        <v>1265415.67</v>
-      </c>
-      <c r="J7" s="71" t="n">
-        <v>100222.26</v>
-      </c>
-      <c r="K7" s="71" t="n">
-        <v>64.02</v>
-      </c>
-      <c r="L7" s="71" t="n">
-        <v>17611.47</v>
-      </c>
-      <c r="M7" s="71" t="inlineStr">
-        <is>
-          <t>0.000771</t>
-        </is>
-      </c>
+      <c r="B7" s="71" t="n"/>
+      <c r="C7" s="71" t="n"/>
+      <c r="D7" s="71" t="n"/>
+      <c r="E7" s="71" t="n"/>
+      <c r="F7" s="71" t="n"/>
+      <c r="G7" s="71" t="n"/>
+      <c r="H7" s="71" t="n"/>
+      <c r="I7" s="71" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="71" t="n"/>
+      <c r="L7" s="71" t="n"/>
+      <c r="M7" s="71" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="73" t="inlineStr">
@@ -2230,46 +2186,18 @@
           <t>ПОЧТА БАНК</t>
         </is>
       </c>
-      <c r="B8" s="71" t="n">
-        <v>64.03</v>
-      </c>
-      <c r="C8" s="71" t="n">
-        <v>1267500</v>
-      </c>
-      <c r="D8" s="71" t="n">
-        <v>100500</v>
-      </c>
-      <c r="E8" s="71" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="F8" s="71" t="n">
-        <v>17765</v>
-      </c>
-      <c r="G8" s="71" t="inlineStr">
-        <is>
-          <t>0.000821</t>
-        </is>
-      </c>
-      <c r="H8" s="71" t="n">
-        <v>63.78</v>
-      </c>
-      <c r="I8" s="71" t="n">
-        <v>1261775.93</v>
-      </c>
-      <c r="J8" s="71" t="n">
-        <v>99838.25999999999</v>
-      </c>
-      <c r="K8" s="71" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="L8" s="71" t="n">
-        <v>17459.12</v>
-      </c>
-      <c r="M8" s="71" t="inlineStr">
-        <is>
-          <t>0.000770</t>
-        </is>
-      </c>
+      <c r="B8" s="71" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
+      <c r="E8" s="71" t="n"/>
+      <c r="F8" s="71" t="n"/>
+      <c r="G8" s="71" t="n"/>
+      <c r="H8" s="71" t="n"/>
+      <c r="I8" s="71" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="71" t="n"/>
+      <c r="L8" s="71" t="n"/>
+      <c r="M8" s="71" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="73" t="inlineStr">
@@ -2278,43 +2206,43 @@
         </is>
       </c>
       <c r="B9" s="71" t="n">
-        <v>64.26000000000001</v>
+        <v>64.14</v>
       </c>
       <c r="C9" s="71" t="n">
-        <v>1036200</v>
+        <v>1012488</v>
       </c>
       <c r="D9" s="71" t="n">
-        <v>73050</v>
+        <v>69939</v>
       </c>
       <c r="E9" s="71" t="n">
-        <v>64.19</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="F9" s="71" t="n">
-        <v>16772.5</v>
+        <v>17216.8</v>
       </c>
       <c r="G9" s="71" t="inlineStr">
         <is>
-          <t>0.000573</t>
+          <t>0.000566</t>
         </is>
       </c>
       <c r="H9" s="71" t="n">
+        <v>63.86</v>
+      </c>
+      <c r="I9" s="71" t="n">
+        <v>993054</v>
+      </c>
+      <c r="J9" s="71" t="n">
+        <v>69608</v>
+      </c>
+      <c r="K9" s="71" t="n">
         <v>63.85</v>
       </c>
-      <c r="I9" s="71" t="n">
-        <v>1028658.44</v>
-      </c>
-      <c r="J9" s="71" t="n">
-        <v>71708.85000000001</v>
-      </c>
-      <c r="K9" s="71" t="n">
-        <v>63.55</v>
-      </c>
       <c r="L9" s="71" t="n">
-        <v>16430.12</v>
+        <v>16011.2</v>
       </c>
       <c r="M9" s="71" t="inlineStr">
         <is>
-          <t>0.000535</t>
+          <t>0.000517</t>
         </is>
       </c>
     </row>
@@ -2325,43 +2253,43 @@
         </is>
       </c>
       <c r="B10" s="71" t="n">
-        <v>63.94</v>
+        <v>64.06</v>
       </c>
       <c r="C10" s="71" t="n">
-        <v>1031990</v>
+        <v>1012488</v>
       </c>
       <c r="D10" s="71" t="n">
-        <v>73545.24000000001</v>
+        <v>72880</v>
       </c>
       <c r="E10" s="71" t="n">
-        <v>64.65000000000001</v>
+        <v>64.27</v>
       </c>
       <c r="F10" s="71" t="n">
-        <v>16930.37</v>
+        <v>16700</v>
       </c>
       <c r="G10" s="71" t="inlineStr">
         <is>
-          <t>0.000687</t>
+          <t>0.000606</t>
         </is>
       </c>
       <c r="H10" s="71" t="n">
-        <v>63.82</v>
+        <v>63.79</v>
       </c>
       <c r="I10" s="71" t="n">
-        <v>1025596.67</v>
+        <v>991388</v>
       </c>
       <c r="J10" s="71" t="n">
-        <v>71708.85000000001</v>
+        <v>68230.03999999999</v>
       </c>
       <c r="K10" s="71" t="n">
-        <v>63.48</v>
+        <v>63.66</v>
       </c>
       <c r="L10" s="71" t="n">
-        <v>16321.15</v>
+        <v>15977.77</v>
       </c>
       <c r="M10" s="71" t="inlineStr">
         <is>
-          <t>0.000550</t>
+          <t>0.000518</t>
         </is>
       </c>
     </row>
@@ -2391,43 +2319,43 @@
         </is>
       </c>
       <c r="B12" s="71" t="n">
-        <v>60.65</v>
+        <v>60.71</v>
       </c>
       <c r="C12" s="71" t="n">
-        <v>994951.58</v>
+        <v>955196.91</v>
       </c>
       <c r="D12" s="71" t="n">
-        <v>69893.36</v>
+        <v>66292.25999999999</v>
       </c>
       <c r="E12" s="71" t="n">
-        <v>61.66</v>
+        <v>63.27</v>
       </c>
       <c r="F12" s="71" t="n">
-        <v>16498.98</v>
+        <v>16294.99</v>
       </c>
       <c r="G12" s="71" t="inlineStr">
         <is>
-          <t>0.000597</t>
+          <t>0.000571</t>
         </is>
       </c>
       <c r="H12" s="71" t="n">
-        <v>60.85</v>
+        <v>60.87</v>
       </c>
       <c r="I12" s="71" t="n">
-        <v>970034.5699999999</v>
+        <v>936572.6800000001</v>
       </c>
       <c r="J12" s="71" t="n">
-        <v>67971.62</v>
+        <v>65238.86</v>
       </c>
       <c r="K12" s="71" t="n">
-        <v>59.87</v>
+        <v>60</v>
       </c>
       <c r="L12" s="71" t="n">
-        <v>15497.35</v>
+        <v>14987.89</v>
       </c>
       <c r="M12" s="71" t="inlineStr">
         <is>
-          <t>0.000532</t>
+          <t>0.000441</t>
         </is>
       </c>
     </row>
@@ -2438,43 +2366,43 @@
         </is>
       </c>
       <c r="B13" s="71" t="n">
-        <v>60.66</v>
+        <v>60.65</v>
       </c>
       <c r="C13" s="71" t="n">
-        <v>994951.58</v>
+        <v>955196.91</v>
       </c>
       <c r="D13" s="71" t="n">
-        <v>69893.36</v>
+        <v>66292.25999999999</v>
       </c>
       <c r="E13" s="71" t="n">
-        <v>61</v>
+        <v>63.27</v>
       </c>
       <c r="F13" s="71" t="n">
-        <v>16498.98</v>
+        <v>16294.99</v>
       </c>
       <c r="G13" s="71" t="inlineStr">
         <is>
-          <t>0.000597</t>
+          <t>0.000571</t>
         </is>
       </c>
       <c r="H13" s="71" t="n">
-        <v>59.98</v>
+        <v>60.06</v>
       </c>
       <c r="I13" s="71" t="n">
-        <v>970033.5699999999</v>
+        <v>936275.33</v>
       </c>
       <c r="J13" s="71" t="n">
-        <v>67970.62</v>
+        <v>65300</v>
       </c>
       <c r="K13" s="71" t="n">
-        <v>59.85</v>
+        <v>59.99</v>
       </c>
       <c r="L13" s="71" t="n">
-        <v>15479.5</v>
+        <v>14987.88</v>
       </c>
       <c r="M13" s="71" t="inlineStr">
         <is>
-          <t>0.000517</t>
+          <t>0.000441</t>
         </is>
       </c>
     </row>
@@ -2485,43 +2413,43 @@
         </is>
       </c>
       <c r="B14" s="71" t="n">
-        <v>60.8</v>
+        <v>60.74</v>
       </c>
       <c r="C14" s="71" t="n">
-        <v>994951.58</v>
+        <v>955196.91</v>
       </c>
       <c r="D14" s="71" t="n">
-        <v>69893.36</v>
+        <v>66292.25999999999</v>
       </c>
       <c r="E14" s="71" t="n">
-        <v>61.66</v>
+        <v>63.27</v>
       </c>
       <c r="F14" s="71" t="n">
-        <v>16498.98</v>
+        <v>16294.99</v>
       </c>
       <c r="G14" s="71" t="inlineStr">
         <is>
-          <t>0.000574</t>
+          <t>0.000558</t>
         </is>
       </c>
       <c r="H14" s="71" t="n">
-        <v>60.85</v>
+        <v>59.53</v>
       </c>
       <c r="I14" s="71" t="n">
-        <v>970052</v>
+        <v>936284</v>
       </c>
       <c r="J14" s="71" t="n">
-        <v>67970.62</v>
+        <v>64496.15</v>
       </c>
       <c r="K14" s="71" t="n">
-        <v>59.86</v>
+        <v>59.72</v>
       </c>
       <c r="L14" s="71" t="n">
-        <v>15479.5</v>
+        <v>14987.88</v>
       </c>
       <c r="M14" s="71" t="inlineStr">
         <is>
-          <t>0.000517</t>
+          <t>0.000441</t>
         </is>
       </c>
     </row>
@@ -2575,19 +2503,19 @@
       </c>
       <c r="B21" s="71" t="n"/>
       <c r="C21" s="71" t="n">
-        <v>16172.1</v>
+        <v>15711.66</v>
       </c>
       <c r="D21" s="71" t="n">
-        <v>1.0014</v>
+        <v>1.0012</v>
       </c>
       <c r="E21" s="71" t="n">
-        <v>260.3</v>
+        <v>253</v>
       </c>
       <c r="F21" s="71" t="n">
-        <v>1133.13</v>
+        <v>1084.24</v>
       </c>
       <c r="G21" s="71" t="n">
-        <v>60.92</v>
+        <v>60.61</v>
       </c>
       <c r="H21" s="71" t="n"/>
     </row>
@@ -2598,20 +2526,20 @@
         </is>
       </c>
       <c r="B22" s="71" t="n">
-        <v>16172.1</v>
+        <v>15711.66</v>
       </c>
       <c r="C22" s="71" t="n"/>
       <c r="D22" s="71" t="n">
-        <v>16172.1</v>
+        <v>15711.66</v>
       </c>
       <c r="E22" s="71" t="n">
         <v>0.016095</v>
       </c>
       <c r="F22" s="71" t="n">
-        <v>0.070063</v>
+        <v>0.068996</v>
       </c>
       <c r="G22" s="71" t="n">
-        <v>986175</v>
+        <v>953595</v>
       </c>
       <c r="H22" s="71" t="n"/>
     </row>
@@ -2622,20 +2550,20 @@
         </is>
       </c>
       <c r="B23" s="71" t="n">
-        <v>1.0014</v>
+        <v>1.0012</v>
       </c>
       <c r="C23" s="71" t="n">
-        <v>16172.1</v>
+        <v>15711.66</v>
       </c>
       <c r="D23" s="71" t="n"/>
       <c r="E23" s="71" t="n">
-        <v>260</v>
+        <v>252.7</v>
       </c>
       <c r="F23" s="71" t="n">
-        <v>1131.86</v>
+        <v>1082.84</v>
       </c>
       <c r="G23" s="71" t="n">
-        <v>61.03</v>
+        <v>60.71</v>
       </c>
       <c r="H23" s="71" t="n"/>
     </row>
@@ -2646,20 +2574,20 @@
         </is>
       </c>
       <c r="B24" s="71" t="n">
-        <v>260.3</v>
+        <v>253</v>
       </c>
       <c r="C24" s="71" t="n">
         <v>0.016095</v>
       </c>
       <c r="D24" s="71" t="n">
-        <v>260</v>
+        <v>252.7</v>
       </c>
       <c r="E24" s="71" t="n"/>
       <c r="F24" s="71" t="n">
-        <v>0.2297</v>
+        <v>0.2334</v>
       </c>
       <c r="G24" s="71" t="n">
-        <v>15891.53</v>
+        <v>15323.32</v>
       </c>
       <c r="H24" s="71" t="n"/>
     </row>
@@ -2670,20 +2598,20 @@
         </is>
       </c>
       <c r="B25" s="71" t="n">
-        <v>1133.13</v>
+        <v>1084.24</v>
       </c>
       <c r="C25" s="71" t="n">
-        <v>0.070063</v>
+        <v>0.068996</v>
       </c>
       <c r="D25" s="71" t="n">
-        <v>1131.86</v>
+        <v>1082.84</v>
       </c>
       <c r="E25" s="71" t="n">
-        <v>0.2297</v>
+        <v>0.2334</v>
       </c>
       <c r="F25" s="71" t="n"/>
       <c r="G25" s="71" t="n">
-        <v>69229.3</v>
+        <v>65647.5</v>
       </c>
       <c r="H25" s="71" t="n"/>
     </row>
@@ -2694,19 +2622,19 @@
         </is>
       </c>
       <c r="B26" s="71" t="n">
-        <v>60.92</v>
+        <v>60.61</v>
       </c>
       <c r="C26" s="71" t="n">
-        <v>986175</v>
+        <v>953595</v>
       </c>
       <c r="D26" s="71" t="n">
-        <v>61.03</v>
+        <v>60.71</v>
       </c>
       <c r="E26" s="71" t="n">
-        <v>15891.53</v>
+        <v>15323.32</v>
       </c>
       <c r="F26" s="71" t="n">
-        <v>69229.3</v>
+        <v>65647.5</v>
       </c>
       <c r="G26" s="71" t="n"/>
       <c r="H26" s="71" t="n"/>
@@ -2717,30 +2645,12 @@
           <t>SHIB</t>
         </is>
       </c>
-      <c r="B27" s="71">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.00001314)</f>
-        <v/>
-      </c>
-      <c r="C27" s="71">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
-        <v/>
-      </c>
-      <c r="D27" s="71">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.00001315)</f>
-        <v/>
-      </c>
-      <c r="E27" s="71">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
-        <v/>
-      </c>
-      <c r="F27" s="71">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
-        <v/>
-      </c>
-      <c r="G27" s="71">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
-        <v/>
-      </c>
+      <c r="B27" s="71" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
+      <c r="E27" s="71" t="n"/>
+      <c r="F27" s="71" t="n"/>
+      <c r="G27" s="71" t="n"/>
       <c r="H27" s="71" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1" s="78"/>
